--- a/outputs-r202/g__RUG592.xlsx
+++ b/outputs-r202/g__RUG592.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -625,6 +630,11 @@
           <t>s__RUG592 sp900315255</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>s__RUG592 sp900315255</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -700,6 +710,11 @@
           <t>s__RUG592 sp900315715</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>s__RUG592 sp900315715</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -775,6 +790,11 @@
           <t>s__RUG592 sp900320535</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>s__RUG592 sp900320535</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -848,6 +868,11 @@
       <c r="W5" t="inlineStr">
         <is>
           <t>s__RUG592 sp900315255</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>s__RUG592 sp900315255(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/g__RUG592.xlsx
+++ b/outputs-r202/g__RUG592.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,86 +796,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG745.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3214615098277225</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3214615098277225</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.03561547051646043</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.3214615098277225</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.325607719693545e-14</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.3214615098277225</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>s__RUG592 sp900315255</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>s__RUG592 sp900315255(reject)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
